--- a/data/CS1/case30/case30_2020.xlsx
+++ b/data/CS1/case30/case30_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF509C7-775E-4424-9F60-994EFCD74F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798E9BF9-93DC-458E-9512-47A4B1A387D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23205" yWindow="7035" windowWidth="21600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$6)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="D8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>7.8403584163847477E-5</v>
       </c>
       <c r="E8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -10194,55 +10194,55 @@
       </c>
       <c r="I8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>4.7675779464204066E-2</v>
       </c>
       <c r="J8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>0.94451197769040862</v>
       </c>
       <c r="K8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>2.4645046630703114</v>
       </c>
       <c r="L8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>3.075580597970192</v>
       </c>
       <c r="M8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>3.4160569626040038</v>
       </c>
       <c r="N8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>3.4794070586083938</v>
       </c>
       <c r="O8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>3.4155161378805881</v>
       </c>
       <c r="P8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>2.9163669196306112</v>
       </c>
       <c r="Q8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>1.9272161013074882</v>
       </c>
       <c r="R8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>0.47084152418396263</v>
       </c>
       <c r="S8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>3.6801682362622291E-3</v>
       </c>
       <c r="T8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>3.168144829477919E-4</v>
       </c>
       <c r="U8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>2.4241108164944683E-4</v>
       </c>
       <c r="V8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="D9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>7.8403584163847477E-5</v>
       </c>
       <c r="E9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -10295,55 +10295,55 @@
       </c>
       <c r="I9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>4.7675779464204066E-2</v>
       </c>
       <c r="J9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>0.94451197769040862</v>
       </c>
       <c r="K9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>2.4645046630703114</v>
       </c>
       <c r="L9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>3.075580597970192</v>
       </c>
       <c r="M9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>3.4160569626040038</v>
       </c>
       <c r="N9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>3.4794070586083938</v>
       </c>
       <c r="O9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>3.4155161378805881</v>
       </c>
       <c r="P9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>2.9163669196306112</v>
       </c>
       <c r="Q9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>1.9272161013074882</v>
       </c>
       <c r="R9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>0.47084152418396263</v>
       </c>
       <c r="S9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>3.6801682362622291E-3</v>
       </c>
       <c r="T9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>3.168144829477919E-4</v>
       </c>
       <c r="U9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>2.4241108164944683E-4</v>
       </c>
       <c r="V9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -10368,99 +10368,99 @@
       </c>
       <c r="B10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>0</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>0</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>0</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>0</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>0</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>0</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>0</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>0</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>0</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>0</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>0</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>0</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>0</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>0</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>0</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>0</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>0</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>0</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>0</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>0</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>0</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>0</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>0</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>0</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -10469,99 +10469,99 @@
       </c>
       <c r="B11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>0</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>0</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>0</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>0</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>0</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>0</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>0</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>0</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>0</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>0</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>0</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>0</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>0</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>0</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>0</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>0</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>0</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>0</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>0</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>0</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>0</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>0</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>0</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>0</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -10570,99 +10570,99 @@
       </c>
       <c r="B12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>0</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>0</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>0</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>0</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>0</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>0</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>0</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>0</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>0</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>0</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>0</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>0</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>0</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>0</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>0</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>0</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>0</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>0</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>0</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>0</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>0</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>0</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>0</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>0</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
   </sheetData>
@@ -24297,7 +24297,7 @@
       </c>
       <c r="D8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>9.8788516046447833E-5</v>
       </c>
       <c r="E8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -24317,55 +24317,55 @@
       </c>
       <c r="I8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>5.7687693151686925E-2</v>
       </c>
       <c r="J8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>1.1995302116668189</v>
       </c>
       <c r="K8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>3.1792110153607016</v>
       </c>
       <c r="L8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>3.9982547773612502</v>
       </c>
       <c r="M8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>4.1334289247508442</v>
       </c>
       <c r="N8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>4.5232291761909114</v>
       </c>
       <c r="O8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>4.406015817865959</v>
       </c>
       <c r="P8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>3.7037859879308761</v>
       </c>
       <c r="Q8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>2.3704758046082106</v>
       </c>
       <c r="R8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>0.59326032047179289</v>
       </c>
       <c r="S8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>4.6370119776904094E-3</v>
       </c>
       <c r="T8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>3.9284995885526197E-4</v>
       </c>
       <c r="U8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>2.9331740879583065E-4</v>
       </c>
       <c r="V8" s="6">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -24398,7 +24398,7 @@
       </c>
       <c r="D9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>9.8788516046447833E-5</v>
       </c>
       <c r="E9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -24418,55 +24418,55 @@
       </c>
       <c r="I9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>5.7687693151686925E-2</v>
       </c>
       <c r="J9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>1.1995302116668189</v>
       </c>
       <c r="K9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>3.1792110153607016</v>
       </c>
       <c r="L9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>3.9982547773612502</v>
       </c>
       <c r="M9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>4.1334289247508442</v>
       </c>
       <c r="N9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>4.5232291761909114</v>
       </c>
       <c r="O9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>4.406015817865959</v>
       </c>
       <c r="P9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>3.7037859879308761</v>
       </c>
       <c r="Q9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>2.3704758046082106</v>
       </c>
       <c r="R9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>0.59326032047179289</v>
       </c>
       <c r="S9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>4.6370119776904094E-3</v>
       </c>
       <c r="T9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>3.9284995885526197E-4</v>
       </c>
       <c r="U9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>2.9331740879583065E-4</v>
       </c>
       <c r="V9" s="6">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -24491,99 +24491,99 @@
       </c>
       <c r="B10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>0</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>0</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>0</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>0</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>0</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>0</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>0</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>0</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>0</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>0</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>0</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>0</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>0</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>0</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>0</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>0</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>0</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>0</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>0</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>0</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>0</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y10" s="9">
         <f>VLOOKUP($A10,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>0</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -24592,99 +24592,99 @@
       </c>
       <c r="B11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>0</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>0</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>0</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>0</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>0</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>0</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>0</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>0</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>0</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>0</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>0</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>0</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>0</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>0</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>0</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>0</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>0</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>0</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>0</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>0</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>0</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y11" s="9">
         <f>VLOOKUP($A11,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>0</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -24693,99 +24693,99 @@
       </c>
       <c r="B12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>0</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>0</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>0</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>0</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>0</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>0</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>0</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>0</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>0</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>0</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>0</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>0</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>0</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>0</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>0</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>0</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>0</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>0</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>0</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>0</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>0</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y12" s="9">
         <f>VLOOKUP($A12,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>0</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
   </sheetData>
@@ -24798,8 +24798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24826,7 +24826,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -24837,7 +24837,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -24848,7 +24848,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -24859,7 +24859,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -24870,7 +24870,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -26835,7 +26835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D4FD3-4E6B-4832-B159-4E067DAE6C14}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -27426,7 +27426,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y21"/>
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
